--- a/ATIMyStoreProject/src/test/resources/TestData/TestData.xlsx
+++ b/ATIMyStoreProject/src/test/resources/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
   <si>
     <t>TestCases</t>
   </si>
@@ -197,9 +197,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>ghfsdtyfg@gmail.com</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -284,16 +281,22 @@
     <t>ABCDEF</t>
   </si>
   <si>
-    <t>newtest1@gmail.com</t>
-  </si>
-  <si>
-    <t>newtest2@gmail.com</t>
-  </si>
-  <si>
-    <t>newtest3@gmail.com</t>
-  </si>
-  <si>
     <t>kebede@xyz.com</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>kebede7@xyz.com</t>
+  </si>
+  <si>
+    <t>new7test1@sfcl.com</t>
+  </si>
+  <si>
+    <t>new7test2@lmsd.com</t>
+  </si>
+  <si>
+    <t>new7test3@gstcv.com</t>
   </si>
 </sst>
 </file>
@@ -444,9 +447,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -763,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1024,7 +1029,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1046,7 +1051,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>50</v>
@@ -1066,7 +1071,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1079,8 +1086,8 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>57</v>
+      <c r="A2" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1088,7 +1095,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1097,7 +1104,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1156,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1184,187 +1191,187 @@
         <v>51</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="C2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="F3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N4" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O4" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/ATIMyStoreProject/src/test/resources/TestData/TestData.xlsx
+++ b/ATIMyStoreProject/src/test/resources/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -287,16 +287,16 @@
     <t>mr</t>
   </si>
   <si>
-    <t>kebede7@xyz.com</t>
-  </si>
-  <si>
-    <t>new7test1@sfcl.com</t>
-  </si>
-  <si>
-    <t>new7test2@lmsd.com</t>
-  </si>
-  <si>
-    <t>new7test3@gstcv.com</t>
+    <t>kebede8@xyz.com</t>
+  </si>
+  <si>
+    <t>new8test1@sfcl.com</t>
+  </si>
+  <si>
+    <t>new8test2@lmsd.com</t>
+  </si>
+  <si>
+    <t>new8test3@gstcv.com</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1163,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
